--- a/public/file/template-excel-payroll/template-import-payroll_V4.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll_V4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\template test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC169503-2B47-4D3B-B14A-599529FF36C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F23004-5F3E-490B-9932-F3F918B0940C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>EMPLOYEE ID</t>
   </si>
   <si>
-    <t>SERAGAM</t>
-  </si>
-  <si>
     <t>KOPERASI</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>END DATE</t>
   </si>
   <si>
-    <t>ABSENSI</t>
-  </si>
-  <si>
     <t>BRANCH CODE</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
     <t>BPJS KESEHATAN</t>
   </si>
   <si>
-    <t>POTONGAN LAIN-LAIN</t>
-  </si>
-  <si>
     <t>TOTAL ATTENDANCE</t>
   </si>
   <si>
@@ -81,9 +72,6 @@
     <t>OVERTIME</t>
   </si>
   <si>
-    <t>POTONGAN TERLAMBAT</t>
-  </si>
-  <si>
     <t>MEAL ALLOWANCE</t>
   </si>
   <si>
@@ -106,6 +94,18 @@
   </si>
   <si>
     <t>NAME</t>
+  </si>
+  <si>
+    <t>POT. SERAGAM</t>
+  </si>
+  <si>
+    <t>POT. ABSENSI</t>
+  </si>
+  <si>
+    <t>POT. TERLAMBAT</t>
+  </si>
+  <si>
+    <t>POT. LAIN-LAIN</t>
   </si>
 </sst>
 </file>
@@ -210,11 +210,8 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -228,15 +225,29 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -556,14 +567,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74985-BA75-4F29-9578-1CA84A0303AC}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="8" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
@@ -576,242 +587,243 @@
     <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="23.42578125" customWidth="1"/>
-    <col min="19" max="19" width="21.5703125" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" customWidth="1"/>
-    <col min="21" max="22" width="12.140625" customWidth="1"/>
+    <col min="19" max="20" width="17.5703125" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" customWidth="1"/>
+    <col min="22" max="22" width="19.140625" customWidth="1"/>
     <col min="23" max="23" width="23" customWidth="1"/>
     <col min="24" max="24" width="21.28515625" customWidth="1"/>
-    <col min="25" max="26" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" style="7" customWidth="1"/>
+    <col min="26" max="26" width="16.28515625" style="7" customWidth="1"/>
     <col min="27" max="27" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:27" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="10" t="s">
+      <c r="Y1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="6"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="5"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="6"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="5"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="6"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="5"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="6"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="5"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="6"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
